--- a/output/personal_loan_accepted.xlsx
+++ b/output/personal_loan_accepted.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,11 @@
           <t>Personal loan acceptance</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Gen_AI_Response</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -460,6 +465,19 @@
       <c r="C2" t="n">
         <v>1</v>
       </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Based on the information provided, the ML model has predicted that this person is likely to opt for a personal loan. This person is 34 years old and has been associated with the bank for 9 years. They have a monthly income of 180,000 and have a total of 1 family member. Their average monthly expenditure is 8,900. They have a post-graduate degree and do not have any mortgage amount. They do not have a security account, CDAccount, online banking, or a credit card.
+Based on this information, the bank can offer the following services to better understand and cater to the needs of this customer:
+1. Personalized loan options: The bank can offer personalized loan options based on the customer's income, expenditure, and education level. This will help the customer to choose the loan that best suits their needs and repayment capacity.
+2. Financial planning and advice: As this customer has a post-graduate degree and a stable income, the bank can offer financial planning and advice services to help them make informed decisions about their finances.
+3. Investment opportunities: The bank can also offer investment opportunities to this customer, such as fixed deposits, mutual funds, and other investment options. This will help the customer to grow their wealth and achieve their financial goals.
+4. Credit counseling: Since the customer does not have a credit card, the bank can offer credit counseling services to educate them about the benefits and responsible use of credit. This will help the customer to build a good credit score and become eligible for better loan options in the future.
+5. Online banking and mobile app: The bank can encourage the customer to opt for online banking and use the mobile app for their banking needs. This will not only make banking convenient for the customer but also help the bank to gather more data and insights about their spending habits and preferences.
+6. Loyalty programs: As this customer has been associated with the bank for 9 years, the bank can offer loyalty programs to reward their loyalty and encourage them to continue using the bank's services.
+Overall, by offering personalized and relevant services, the bank can better understand and cater to the needs of this customer, thereby building a strong and long-lasting relationship with them.</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -471,6 +489,21 @@
       <c r="C3" t="n">
         <v>1</v>
       </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Based on the information provided, the person is 48 years old and has been associated with the bank for 23 years. They have a monthly income of 114,000 and a family of 2 members. Their average monthly expenditure is 3,800. They have a post-graduate education level and do not have any mortgage amount. They have a security account and a CDAccount with the bank, but have not opted for online banking or a credit card.
+Based on this information, the bank can offer the following services to better understand and cater to the customer's needs:
+1. Personalized financial planning: The bank can offer personalized financial planning services to help the customer manage their income, expenses, and savings effectively.
+2. Investment options: As the customer has a CDAccount and a security account, the bank can offer various investment options such as mutual funds, stocks, and bonds to help the customer grow their wealth.
+3. Education loans: As the customer has a post-graduate education level, the bank can offer education loans to help them pursue further studies or support their family members' education.
+4. Retirement planning: The bank can offer retirement planning services to help the customer save and invest for their future retirement needs.
+5. Insurance products: The bank can offer various insurance products such as life insurance, health insurance, and property insurance to provide financial security to the customer and their family.
+6. Budgeting and expense tracking tools: The bank can provide budgeting and expense tracking tools to help the customer manage their expenses and savings effectively.
+7. Credit counseling: As the customer does not have a credit card, the bank can offer credit counseling services to help them understand the benefits and responsible use of credit.
+8. Online banking and mobile app: The bank can encourage the customer to opt for online banking and provide a user-friendly mobile app to make banking more convenient and accessible for them.
+By offering these services, the bank can gain a better understanding of the customer's financial needs and provide personalized solutions to help them achieve their financial goals. This will also help in building a long-term relationship with the customer and increase their loyalty towards the bank.</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -482,6 +515,18 @@
       <c r="C4" t="n">
         <v>1</v>
       </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Based on the information provided, the ML model has predicted that this person is likely to opt for a personal loan. This person is 38 years old and has been associated with the bank for 14 years. Their income is 130,000 and they have a family of 4 members. Their average monthly expenditure is 4,700 and they have a post-graduate education level.
+Some additional services that the bank can offer to this customer are:
+1. Investment options: Based on their income and education level, this person may be interested in investing their money in various investment options such as mutual funds, stocks, or fixed deposits. The bank can offer personalized investment plans based on their risk appetite and financial goals.
+2. Insurance products: As this person has a family, the bank can offer various insurance products such as life insurance, health insurance, and property insurance to provide financial security to their loved ones.
+3. Retirement planning: The bank can also offer retirement planning services to help this person save and invest for their future retirement. This can include options such as pension plans, annuities, and retirement savings accounts.
+4. Financial advice and education: The bank can provide financial advice and education to help this person make informed decisions about their finances. This can include workshops, seminars, and personalized consultations with financial experts.
+5. Online banking and mobile app: As this person has not opted for net banking, the bank can encourage them to use their online banking services and mobile app for convenient and secure banking transactions.
+Overall, by understanding the customer's profile and needs, the bank can offer personalized and relevant services to enhance their banking experience and build a long-term relationship with the customer.</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -493,6 +538,19 @@
       <c r="C5" t="n">
         <v>1</v>
       </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Based on the information provided, the ML model has predicted that this person is likely to opt for a personal loan. This person is 46 years old and has been associated with the bank for 21 years. They have a high income of 193,000 and a small family of 2 members. Their average monthly expenditure is 8,100 and they have a post-graduate education level.
+Some additional services that the bank can offer to this customer are:
+1. Investment options: Since this person has a high income and a long association with the bank, they may be interested in investing their money in various options such as mutual funds, stocks, and bonds. The bank can offer personalized investment plans based on their risk appetite and financial goals.
+2. Retirement planning: With a high income and a long-term relationship with the bank, this person may be interested in planning for their retirement. The bank can offer retirement planning services and help them create a financial plan for their future.
+3. Insurance products: As this person has a family, the bank can offer various insurance products such as life insurance, health insurance, and property insurance to provide financial security to their loved ones.
+4. Wealth management services: With a high income and a long-term relationship with the bank, this person may have accumulated a significant amount of wealth. The bank can offer wealth management services to help them manage and grow their wealth effectively.
+5. Personalized financial advice: The bank can offer personalized financial advice to this customer based on their financial goals, risk appetite, and current financial situation. This can help them make informed decisions about their finances and achieve their financial goals.
+By offering these services, the bank can not only cater to the customer's financial needs but also build a stronger relationship with them. Additionally, the bank can also use the ML model to understand the customer's preferences and offer personalized services to enhance their banking experience.</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -504,6 +562,16 @@
       <c r="C6" t="n">
         <v>1</v>
       </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Based on the information provided, the ML model has predicted that this person is likely to opt for a personal loan. This person is 38 years old and has been associated with the bank for 13 years, indicating a long-standing relationship with the bank. Their income is $119,000 per year and they have a small family of one member. Their average monthly expenditure is $3,300, which suggests that they have a stable financial situation.
+The person has a higher secondary education level and has completed their graduation. This indicates that they have a good level of education and may have a stable job or career. They do not have any mortgage amount, which suggests that they do not have any major financial commitments.
+The person does not have a security account, which means they may not have any assets or collateral to secure a loan. However, they do have a CDAccount, which suggests that they have a good savings habit and may be open to investing in other financial products.
+The person has opted for online banking and has a credit card, which indicates that they are comfortable with technology and may be open to using digital banking services. Based on this information, the bank can offer additional services such as investment opportunities, retirement planning, and financial advice to help the customer grow their wealth.
+The bank can also offer personalized loan options, such as a low-interest rate personal loan or a loan with flexible repayment options, to cater to the customer's specific needs. Additionally, the bank can provide financial education and resources to help the customer better understand their finances and make informed decisions.
+Overall, this person seems to have a stable financial situation and a good relationship with the bank. By offering personalized services and financial guidance, the bank can further strengthen their relationship with the customer and help them achieve their financial goals.</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -515,6 +583,19 @@
       <c r="C7" t="n">
         <v>1</v>
       </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Based on the information provided, the ML model has predicted that this person is likely to opt for a personal loan. This person is 42 years old and has been associated with the bank for 18 years. They have a high income of 141,000 and a family of 3 members. Their average monthly expenditure is 5,000 and they have a post-graduate education level.
+Some additional services that the bank can offer to this customer are:
+1. Investment and wealth management services: Since this person has a high income and a long association with the bank, they may be interested in investing their money in various financial instruments. The bank can offer personalized investment and wealth management services to help this customer grow their wealth.
+2. Insurance products: The bank can offer various insurance products such as life insurance, health insurance, and property insurance to provide financial security to this customer and their family.
+3. Retirement planning: As this person is in their 40s, the bank can offer retirement planning services to help them plan for their future and ensure a comfortable retirement.
+4. Personalized loan options: The bank can offer personalized loan options to this customer based on their income, credit score, and financial goals. This can include options such as a home loan, car loan, or education loan.
+5. Financial education and guidance: The bank can also offer financial education and guidance to help this customer make informed decisions about their finances. This can include workshops, seminars, and online resources to improve their financial literacy.
+By offering these additional services, the bank can not only cater to the customer's current needs but also build a long-term relationship with them. This will help the bank understand the customer's financial goals and offer relevant products and services in the future.</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -526,6 +607,19 @@
       <c r="C8" t="n">
         <v>1</v>
       </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Based on the information provided, the ML model has predicted that this person is likely to opt for a personal loan. This person is 32 years old and has been associated with the bank for 7 years. Their income is $132,000 per year and they have a family of 4 members. Their average monthly expenditure is $1,100 and they have a graduation degree (education level 2).
+Some additional services that the bank can offer to this customer are:
+1. Investment options: Since this person has a good income and a stable job, the bank can offer them various investment options such as mutual funds, stocks, and bonds. This will help them grow their wealth and achieve their financial goals.
+2. Retirement planning: As this person is in their early thirties, the bank can offer them retirement planning services to help them save for their future. This can include options like a 401(k) plan or an individual retirement account (IRA).
+3. Insurance products: The bank can also offer various insurance products such as life insurance, health insurance, and property insurance to provide financial security to the customer and their family.
+4. Financial planning: The bank can provide personalized financial planning services to help the customer manage their finances better and achieve their financial goals. This can include budgeting, debt management, and savings strategies.
+5. Credit counseling: Since the customer has a credit card, the bank can offer credit counseling services to help them understand their credit score, manage their credit card usage, and improve their creditworthiness.
+By offering these additional services, the bank can not only cater to the customer's financial needs but also build a stronger relationship with them. This will help the bank understand the customer better and provide them with personalized services in the future.</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -536,6 +630,19 @@
       </c>
       <c r="C9" t="n">
         <v>1</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Based on the information provided, the ML model has predicted that this person is likely to opt for a personal loan. This person is 37 years old and has been associated with the bank for 12 years. Their income is $194,000 per year and they have a family of 4 members. Their average monthly expenditure is $200 and they have a post-graduate education level.
+Some additional services that the bank can offer to this customer based on their profile are:
+1. Investment options: Since this person has a high income and a post-graduate education, they may be interested in investing their money in various options such as mutual funds, stocks, and bonds. The bank can offer personalized investment plans and advice to help them grow their wealth.
+2. Retirement planning: With a high income and a long association with the bank, this person may be interested in planning for their retirement. The bank can offer retirement planning services and help them choose the right investment options to secure their future.
+3. Insurance products: As this person has a family, the bank can offer various insurance products such as life insurance, health insurance, and property insurance to provide financial security to their loved ones.
+4. Wealth management services: With a high income and a long association with the bank, this person may have accumulated a significant amount of wealth. The bank can offer personalized wealth management services to help them manage and grow their assets.
+5. Personalized credit options: Since this person has a good credit score (as indicated by the ML model predicting their likelihood of opting for a personal loan), the bank can offer them personalized credit options such as credit cards with attractive rewards and low-interest rates.
+By offering these additional services, the bank can not only cater to the financial needs of this customer but also build a stronger relationship with them. This will help the bank understand their customer better and offer them more relevant and personalized services in the future.</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/output/personal_loan_accepted.xlsx
+++ b/output/personal_loan_accepted.xlsx
@@ -467,15 +467,14 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Based on the information provided, the ML model has predicted that this person is likely to opt for a personal loan. This person is 34 years old and has been associated with the bank for 9 years. They have a monthly income of 180,000 and have a total of 1 family member. Their average monthly expenditure is 8,900. They have a post-graduate degree and do not have any mortgage amount. They do not have a security account, CDAccount, online banking, or a credit card.
-Based on this information, the bank can offer the following services to better understand and cater to the needs of this customer:
-1. Personalized loan options: The bank can offer personalized loan options based on the customer's income, expenditure, and education level. This will help the customer to choose the loan that best suits their needs and repayment capacity.
-2. Financial planning and advice: As this customer has a post-graduate degree and a stable income, the bank can offer financial planning and advice services to help them make informed decisions about their finances.
-3. Investment opportunities: The bank can also offer investment opportunities to this customer, such as fixed deposits, mutual funds, and other investment options. This will help the customer to grow their wealth and achieve their financial goals.
-4. Credit counseling: Since the customer does not have a credit card, the bank can offer credit counseling services to educate them about the benefits and responsible use of credit. This will help the customer to build a good credit score and become eligible for better loan options in the future.
-5. Online banking and mobile app: The bank can encourage the customer to opt for online banking and use the mobile app for their banking needs. This will not only make banking convenient for the customer but also help the bank to gather more data and insights about their spending habits and preferences.
-6. Loyalty programs: As this customer has been associated with the bank for 9 years, the bank can offer loyalty programs to reward their loyalty and encourage them to continue using the bank's services.
-Overall, by offering personalized and relevant services, the bank can better understand and cater to the needs of this customer, thereby building a strong and long-lasting relationship with them.</t>
+          <t>Based on the information provided, the ML model has predicted that this person is likely to opt for a personal loan. This person is 34 years old and has been associated with the bank for 9 years. Their income is 180,000 per year and they have a total of 1 family member. Their average monthly expenditure is 8,900 and they have a post-graduate education level.
+Some additional services that the bank can offer to this customer based on their profile are:
+1. Investment options: Since this person has a higher income and a post-graduate education, they may be interested in investing their money in various options such as mutual funds, stocks, or fixed deposits. The bank can offer personalized investment plans based on their risk appetite and financial goals.
+2. Retirement planning: As this person is in their mid-thirties, it is a good time for them to start planning for their retirement. The bank can offer retirement planning services and help them create a financial plan for their future.
+3. Insurance products: The bank can offer various insurance products such as life insurance, health insurance, and property insurance to this customer. This will not only provide them with financial security but also help them save on taxes.
+4. Wealth management services: With a higher income and a long association with the bank, this person may be interested in wealth management services. The bank can offer personalized wealth management solutions to help them grow their wealth and achieve their financial goals.
+5. Financial planning and budgeting: The bank can offer financial planning and budgeting services to help this customer manage their expenses and save for their future financial goals.
+By offering these additional services, the bank can not only cater to the customer's financial needs but also build a stronger relationship with them. This will help the bank understand the customer better and offer them personalized services in the future.</t>
         </is>
       </c>
     </row>
@@ -491,17 +490,11 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Based on the information provided, the person is 48 years old and has been associated with the bank for 23 years. They have a monthly income of 114,000 and a family of 2 members. Their average monthly expenditure is 3,800. They have a post-graduate education level and do not have any mortgage amount. They have a security account and a CDAccount with the bank, but have not opted for online banking or a credit card.
-Based on this information, the bank can offer the following services to better understand and cater to the customer's needs:
-1. Personalized financial planning: The bank can offer personalized financial planning services to help the customer manage their income, expenses, and savings effectively.
-2. Investment options: As the customer has a CDAccount and a security account, the bank can offer various investment options such as mutual funds, stocks, and bonds to help the customer grow their wealth.
-3. Education loans: As the customer has a post-graduate education level, the bank can offer education loans to help them pursue further studies or support their family members' education.
-4. Retirement planning: The bank can offer retirement planning services to help the customer save and invest for their future retirement needs.
-5. Insurance products: The bank can offer various insurance products such as life insurance, health insurance, and property insurance to provide financial security to the customer and their family.
-6. Budgeting and expense tracking tools: The bank can provide budgeting and expense tracking tools to help the customer manage their expenses and savings effectively.
-7. Credit counseling: As the customer does not have a credit card, the bank can offer credit counseling services to help them understand the benefits and responsible use of credit.
-8. Online banking and mobile app: The bank can encourage the customer to opt for online banking and provide a user-friendly mobile app to make banking more convenient and accessible for them.
-By offering these services, the bank can gain a better understanding of the customer's financial needs and provide personalized solutions to help them achieve their financial goals. This will also help in building a long-term relationship with the customer and increase their loyalty towards the bank.</t>
+          <t>Based on the information provided, the ML model has predicted that this person is likely to opt for a personal loan. This person is 48 years old and has been associated with the bank for 23 years, indicating a long-standing relationship with the bank. Their income is $114,000 per year and they have a family of two members. Their average monthly expenditure is $3,800. This person has a post-graduate education level.
+Based on this information, the bank can offer personalized loan options that cater to the specific needs and financial situation of this customer. They can also offer financial planning and investment services to help this customer manage their income and expenses effectively. Additionally, the bank can provide insurance services to protect the customer and their family in case of any unforeseen events.
+Since this person has a long-standing relationship with the bank, the bank can also offer loyalty programs and rewards to further strengthen the relationship. They can also provide personalized financial advice and assistance to help the customer achieve their financial goals.
+Furthermore, the bank can offer online banking services and encourage the customer to opt for net banking to make their banking experience more convenient and hassle-free. They can also offer credit card options to this customer, as they have a good credit score and are likely to be responsible with their finances.
+Overall, the bank can use the ML model's prediction to understand this customer better and offer personalized services that cater to their specific needs and preferences. This will not only help the bank retain this customer but also attract new customers through positive word-of-mouth.</t>
         </is>
       </c>
     </row>
@@ -517,14 +510,11 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Based on the information provided, the ML model has predicted that this person is likely to opt for a personal loan. This person is 38 years old and has been associated with the bank for 14 years. Their income is 130,000 and they have a family of 4 members. Their average monthly expenditure is 4,700 and they have a post-graduate education level.
-Some additional services that the bank can offer to this customer are:
-1. Investment options: Based on their income and education level, this person may be interested in investing their money in various investment options such as mutual funds, stocks, or fixed deposits. The bank can offer personalized investment plans based on their risk appetite and financial goals.
-2. Insurance products: As this person has a family, the bank can offer various insurance products such as life insurance, health insurance, and property insurance to provide financial security to their loved ones.
-3. Retirement planning: The bank can also offer retirement planning services to help this person save and invest for their future retirement. This can include options such as pension plans, annuities, and retirement savings accounts.
-4. Financial advice and education: The bank can provide financial advice and education to help this person make informed decisions about their finances. This can include workshops, seminars, and personalized consultations with financial experts.
-5. Online banking and mobile app: As this person has not opted for net banking, the bank can encourage them to use their online banking services and mobile app for convenient and secure banking transactions.
-Overall, by understanding the customer's profile and needs, the bank can offer personalized and relevant services to enhance their banking experience and build a long-term relationship with the customer.</t>
+          <t>Based on the ML model, this person is likely to opt for a personal loan. They are 38 years old and have been associated with the bank for 14 years, indicating a long-standing relationship with the bank. Their income is relatively high at 130,000 and they have a family of four, suggesting a need for financial stability and support.
+Since the person has a post-graduate education, they may be interested in investment opportunities and financial planning services. The bank can offer services such as wealth management, retirement planning, and investment advice to cater to their needs.
+Additionally, since the person does not have a security account but has a CDAccount, the bank can offer them options for securing their assets and investments. They can also provide personalized financial advice and assistance in managing their finances.
+As the person does not have online banking or a credit card, the bank can offer them these services and promote the convenience and security of online banking. They can also offer credit card options with attractive rewards and benefits to suit the person's lifestyle and spending habits.
+Overall, the bank can use the ML model's prediction to tailor their services and offer personalized solutions to this customer, building a stronger relationship and increasing customer satisfaction.</t>
         </is>
       </c>
     </row>
@@ -540,15 +530,14 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Based on the information provided, the ML model has predicted that this person is likely to opt for a personal loan. This person is 46 years old and has been associated with the bank for 21 years. They have a high income of 193,000 and a small family of 2 members. Their average monthly expenditure is 8,100 and they have a post-graduate education level.
+          <t>Based on the information provided, the ML model has predicted that this person is likely to opt for a personal loan. This person is 46 years old and has been associated with the bank for 21 years. They have a high income of 193,000 and a small family of 2 members. Their average monthly expenditure is 8,100 and they have a post-graduate education level.
 Some additional services that the bank can offer to this customer are:
-1. Investment options: Since this person has a high income and a long association with the bank, they may be interested in investing their money in various options such as mutual funds, stocks, and bonds. The bank can offer personalized investment plans based on their risk appetite and financial goals.
-2. Retirement planning: With a high income and a long-term relationship with the bank, this person may be interested in planning for their retirement. The bank can offer retirement planning services and help them create a financial plan for their future.
-3. Insurance products: As this person has a family, the bank can offer various insurance products such as life insurance, health insurance, and property insurance to provide financial security to their loved ones.
-4. Wealth management services: With a high income and a long-term relationship with the bank, this person may have accumulated a significant amount of wealth. The bank can offer wealth management services to help them manage and grow their wealth effectively.
-5. Personalized financial advice: The bank can offer personalized financial advice to this customer based on their financial goals, risk appetite, and current financial situation. This can help them make informed decisions about their finances and achieve their financial goals.
-By offering these services, the bank can not only cater to the customer's financial needs but also build a stronger relationship with them. Additionally, the bank can also use the ML model to understand the customer's preferences and offer personalized services to enhance their banking experience.</t>
+1. Investment opportunities: Based on their high income and long association with the bank, this person may be interested in investment opportunities such as mutual funds, stocks, or bonds. The bank can offer personalized investment plans based on their risk appetite and financial goals.
+2. Retirement planning: As this person is in their late 40s, the bank can offer retirement planning services to help them save and invest for their future. This can include options such as pension plans, annuities, and retirement savings accounts.
+3. Insurance products: The bank can offer various insurance products such as life insurance, health insurance, and property insurance to provide financial security to this customer and their family.
+4. Wealth management services: With a high income and potential for future growth, this person may benefit from wealth management services offered by the bank. This can include portfolio management, tax planning, and estate planning.
+5. Personalized financial advice: The bank can assign a dedicated financial advisor to this customer who can provide personalized financial advice and help them make informed decisions about their finances.
+By offering these additional services, the bank can not only cater to the customer's financial needs but also build a stronger relationship with them. This will help the bank understand the customer better and offer more tailored products and services in the future.</t>
         </is>
       </c>
     </row>
@@ -564,12 +553,16 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Based on the information provided, the ML model has predicted that this person is likely to opt for a personal loan. This person is 38 years old and has been associated with the bank for 13 years, indicating a long-standing relationship with the bank. Their income is $119,000 per year and they have a small family of one member. Their average monthly expenditure is $3,300, which suggests that they have a stable financial situation.
-The person has a higher secondary education level and has completed their graduation. This indicates that they have a good level of education and may have a stable job or career. They do not have any mortgage amount, which suggests that they do not have any major financial commitments.
-The person does not have a security account, which means they may not have any assets or collateral to secure a loan. However, they do have a CDAccount, which suggests that they have a good savings habit and may be open to investing in other financial products.
-The person has opted for online banking and has a credit card, which indicates that they are comfortable with technology and may be open to using digital banking services. Based on this information, the bank can offer additional services such as investment opportunities, retirement planning, and financial advice to help the customer grow their wealth.
-The bank can also offer personalized loan options, such as a low-interest rate personal loan or a loan with flexible repayment options, to cater to the customer's specific needs. Additionally, the bank can provide financial education and resources to help the customer better understand their finances and make informed decisions.
-Overall, this person seems to have a stable financial situation and a good relationship with the bank. By offering personalized services and financial guidance, the bank can further strengthen their relationship with the customer and help them achieve their financial goals.</t>
+          <t>Based on the information provided, the person is 38 years old and has been associated with the bank for 13 years. They have an income of 119,000 per year and have a small family of one member. Their average monthly expenditure is 3,300. They have a graduation degree and do not have any mortgage amount. They do not have a security account but have a CDAccount, and have opted for online banking and also have a credit card.
+Based on this information, the bank can offer the following services to better understand and cater to the needs of this customer:
+1. Personalized financial planning: The bank can offer personalized financial planning services to help the customer manage their income and expenses effectively. This can include budgeting, investment planning, and retirement planning.
+2. Education loan: As the customer has a graduation degree and is interested in further education, the bank can offer education loans to help them pursue their post-graduation degree.
+3. Insurance products: The bank can offer various insurance products such as life insurance, health insurance, and property insurance to provide financial security to the customer and their family.
+4. Investment opportunities: With a good income and a long association with the bank, the customer can be offered various investment opportunities such as mutual funds, stocks, and bonds to help them grow their wealth.
+5. Credit score monitoring: As the customer has a credit card and a CDAccount, the bank can offer credit score monitoring services to help them maintain a good credit score and avail better loan and credit card offers in the future.
+6. Personalized loan offers: Based on the customer's income and expenses, the bank can offer personalized loan offers such as personal loans, home loans, and car loans to meet their financial needs.
+7. Online financial management tools: Since the customer has opted for online banking, the bank can offer online financial management tools to help them track their expenses, set financial goals, and manage their finances efficiently.
+By offering these services, the bank can not only cater to the customer's current needs but also build a long-term relationship with them by understanding their financial goals and providing personalized solutions.</t>
         </is>
       </c>
     </row>
@@ -586,14 +579,16 @@
       <c r="D7" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Based on the information provided, the ML model has predicted that this person is likely to opt for a personal loan. This person is 42 years old and has been associated with the bank for 18 years. They have a high income of 141,000 and a family of 3 members. Their average monthly expenditure is 5,000 and they have a post-graduate education level.
-Some additional services that the bank can offer to this customer are:
-1. Investment and wealth management services: Since this person has a high income and a long association with the bank, they may be interested in investing their money in various financial instruments. The bank can offer personalized investment and wealth management services to help this customer grow their wealth.
-2. Insurance products: The bank can offer various insurance products such as life insurance, health insurance, and property insurance to provide financial security to this customer and their family.
-3. Retirement planning: As this person is in their 40s, the bank can offer retirement planning services to help them plan for their future and ensure a comfortable retirement.
-4. Personalized loan options: The bank can offer personalized loan options to this customer based on their income, credit score, and financial goals. This can include options such as a home loan, car loan, or education loan.
-5. Financial education and guidance: The bank can also offer financial education and guidance to help this customer make informed decisions about their finances. This can include workshops, seminars, and online resources to improve their financial literacy.
-By offering these additional services, the bank can not only cater to the customer's current needs but also build a long-term relationship with them. This will help the bank understand the customer's financial goals and offer relevant products and services in the future.</t>
+Based on the information provided, the ML model has predicted that this person is likely to opt for a personal loan. This person is 42 years old and has been associated with the bank for 18 years, indicating a long-standing relationship with the bank. The person has a high income of 141,000 and a family of 3 members, suggesting a stable financial background.
+The person has a high education level, with a post-graduation degree, which could indicate a higher level of financial literacy and understanding of banking products. The fact that the person has a mortgage amount of 0 could suggest that they do not have any outstanding loans or debts, making them a low-risk customer for the bank.
+The person also has a security account, CDAccount, and has opted for online banking, indicating a tech-savvy and digitally active customer. However, the person does not have a credit card, which could be an opportunity for the bank to offer them a credit card and expand their relationship with the customer.
+Based on this information, the bank can offer the following services to better understand and cater to the needs of this customer:
+1. Personalized financial planning: The bank can offer personalized financial planning services to help the customer manage their income, expenses, and investments effectively.
+2. Investment opportunities: With a high income and stable financial background, the bank can offer investment opportunities to help the customer grow their wealth.
+3. Credit card: As the customer does not have a credit card, the bank can offer them a credit card with suitable benefits and rewards to cater to their financial needs.
+4. Loan consolidation: The bank can offer loan consolidation services to help the customer manage their debts and loans more efficiently.
+5. Financial education: The bank can provide financial education and resources to help the customer make informed decisions about their finances and banking products.
+Overall, by understanding the customer's profile and needs, the bank can offer personalized and relevant services to strengthen their relationship with the customer and increase customer satisfaction.</t>
         </is>
       </c>
     </row>
@@ -610,14 +605,18 @@
       <c r="D8" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Based on the information provided, the ML model has predicted that this person is likely to opt for a personal loan. This person is 32 years old and has been associated with the bank for 7 years. Their income is $132,000 per year and they have a family of 4 members. Their average monthly expenditure is $1,100 and they have a graduation degree (education level 2).
-Some additional services that the bank can offer to this customer are:
-1. Investment options: Since this person has a good income and a stable job, the bank can offer them various investment options such as mutual funds, stocks, and bonds. This will help them grow their wealth and achieve their financial goals.
-2. Retirement planning: As this person is in their early thirties, the bank can offer them retirement planning services to help them save for their future. This can include options like a 401(k) plan or an individual retirement account (IRA).
-3. Insurance products: The bank can also offer various insurance products such as life insurance, health insurance, and property insurance to provide financial security to the customer and their family.
-4. Financial planning: The bank can provide personalized financial planning services to help the customer manage their finances better and achieve their financial goals. This can include budgeting, debt management, and savings strategies.
-5. Credit counseling: Since the customer has a credit card, the bank can offer credit counseling services to help them understand their credit score, manage their credit card usage, and improve their creditworthiness.
-By offering these additional services, the bank can not only cater to the customer's financial needs but also build a stronger relationship with them. This will help the bank understand the customer better and provide them with personalized services in the future.</t>
+Based on the information provided, the ML model has predicted that this person is likely to opt for a personal loan. Let's call this person "John" for the sake of convenience.
+John is 32 years old and has been associated with the bank for 7 years. This suggests that he has a good relationship with the bank and is a loyal customer. This information can be used by the bank to offer personalized services to John, such as special interest rates or discounts on loan products.
+John's income is $132,000 per year, which indicates that he has a stable and decent income. This information can be used by the bank to offer a higher loan amount to John, as he may have the financial capability to repay it.
+John has a family of 4 members, which suggests that he may have financial responsibilities towards his family. This information can be used by the bank to offer family-oriented loan products, such as education loans or home improvement loans.
+John's average monthly expenditure is $1,100, which indicates that he has a good financial management and is capable of managing his expenses. This information can be used by the bank to offer financial planning services to John, such as investment options or savings plans.
+John has completed his graduation (education level 2), which suggests that he may have a good understanding of financial products and services. This information can be used by the bank to offer more complex and advanced financial services to John, such as investment portfolios or wealth management services.
+John has a mortgage amount of $412,000, which indicates that he may have a property or assets. This information can be used by the bank to offer mortgage loans or other secured loans to John, as he may have collateral to secure the loan.
+John does not have a security account or a CDAccount, which suggests that he may not have invested in these financial products yet. This information can be used by the bank to offer investment options and educate John about the benefits of these products.
+John has opted for online banking (Netbanking) and has a credit card, which suggests that he is tech-savvy and prefers digital banking. This information can be used by the bank to offer digital banking services and promote its online products to John.
+Based on the information provided, the bank can offer the following services to John:
+1. Personalized loan products: Based on John's income and financial stability, the bank can offer personalized loan products with attractive interest rates and flexible repayment options.
+</t>
         </is>
       </c>
     </row>
@@ -634,14 +633,11 @@
       <c r="D9" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Based on the information provided, the ML model has predicted that this person is likely to opt for a personal loan. This person is 37 years old and has been associated with the bank for 12 years. Their income is $194,000 per year and they have a family of 4 members. Their average monthly expenditure is $200 and they have a post-graduate education level.
-Some additional services that the bank can offer to this customer based on their profile are:
-1. Investment options: Since this person has a high income and a post-graduate education, they may be interested in investing their money in various options such as mutual funds, stocks, and bonds. The bank can offer personalized investment plans and advice to help them grow their wealth.
-2. Retirement planning: With a high income and a long association with the bank, this person may be interested in planning for their retirement. The bank can offer retirement planning services and help them choose the right investment options to secure their future.
-3. Insurance products: As this person has a family, the bank can offer various insurance products such as life insurance, health insurance, and property insurance to provide financial security to their loved ones.
-4. Wealth management services: With a high income and a long association with the bank, this person may have accumulated a significant amount of wealth. The bank can offer personalized wealth management services to help them manage and grow their assets.
-5. Personalized credit options: Since this person has a good credit score (as indicated by the ML model predicting their likelihood of opting for a personal loan), the bank can offer them personalized credit options such as credit cards with attractive rewards and low-interest rates.
-By offering these additional services, the bank can not only cater to the financial needs of this customer but also build a stronger relationship with them. This will help the bank understand their customer better and offer them more relevant and personalized services in the future.</t>
+Based on the information provided, the ML model predicted that this person is likely to opt for a personal loan. This person is 37 years old and has been associated with the bank for 12 years. They have a high income of 194,000 per year and a family of 4 members. Their average monthly expenditure is relatively low at 0.2, indicating that they have good financial management skills.
+The person has a high level of education, with a post-graduation degree. This suggests that they may have a stable job and a higher income potential. They also have a mortgage amount of 211,000, which could indicate that they have a property and are financially stable.
+The person has a security account, CDAccount, and has opted for online banking and has a credit card. This shows that they are tech-savvy and prefer to manage their finances digitally. Based on this information, the bank can offer personalized services such as online budgeting tools, investment options, and financial planning services to help the customer manage their finances effectively.
+Additionally, the bank can also offer personalized loan options such as a low-interest rate personal loan, a mortgage loan, or a credit card with attractive rewards and benefits. The bank can also provide financial advice and guidance to help the customer make informed decisions about their finances.
+Overall, this person seems to be a financially responsible and educated individual who is open to using digital banking services. By understanding their needs and preferences, the bank can offer personalized services and build a strong relationship with the customer.</t>
         </is>
       </c>
     </row>

--- a/output/personal_loan_accepted.xlsx
+++ b/output/personal_loan_accepted.xlsx
@@ -467,14 +467,15 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Based on the information provided, the ML model has predicted that this person is likely to opt for a personal loan. This person is 34 years old and has been associated with the bank for 9 years. Their income is 180,000 per year and they have a total of 1 family member. Their average monthly expenditure is 8,900 and they have a post-graduate education level.
-Some additional services that the bank can offer to this customer based on their profile are:
-1. Investment options: Since this person has a higher income and a post-graduate education, they may be interested in investing their money in various options such as mutual funds, stocks, or fixed deposits. The bank can offer personalized investment plans based on their risk appetite and financial goals.
-2. Retirement planning: As this person is in their mid-thirties, it is a good time for them to start planning for their retirement. The bank can offer retirement planning services and help them create a financial plan for their future.
-3. Insurance products: The bank can offer various insurance products such as life insurance, health insurance, and property insurance to this customer. This will not only provide them with financial security but also help them save on taxes.
-4. Wealth management services: With a higher income and a long association with the bank, this person may be interested in wealth management services. The bank can offer personalized wealth management solutions to help them grow their wealth and achieve their financial goals.
-5. Financial planning and budgeting: The bank can offer financial planning and budgeting services to help this customer manage their expenses and save for their future financial goals.
-By offering these additional services, the bank can not only cater to the customer's financial needs but also build a stronger relationship with them. This will help the bank understand the customer better and offer them personalized services in the future.</t>
+          <t xml:space="preserve">
+Based on the information provided, the ML model has predicted that this person is likely to opt for a personal loan. This person is 34 years old and has been associated with the bank for 9 years. Their income is $180,000 per year and they have a total of 1 family member. Their average monthly expenditure is $8,900 and they have a post-graduate education level.
+Some additional services that the bank can offer to this customer are:
+1. Investment options: Since this person has a high income and a post-graduate education, they may be interested in investing their money. The bank can offer various investment options such as mutual funds, stocks, and bonds to help them grow their wealth.
+2. Retirement planning: As this person is in their mid-30s, the bank can offer retirement planning services to help them save for their future. This can include options such as a 401(k) plan or an individual retirement account (IRA).
+3. Insurance products: The bank can offer various insurance products such as life insurance, health insurance, and disability insurance to provide financial security to this customer and their family.
+4. Wealth management services: With a high income and potential for investments, this customer may benefit from wealth management services offered by the bank. This can include personalized financial planning, portfolio management, and tax planning.
+5. Personalized banking services: The bank can offer personalized banking services such as a dedicated relationship manager, priority customer service, and exclusive banking privileges to cater to the needs of this customer.
+To better understand this customer, the bank can also conduct a survey or hold a focus group to gather more information about their financial goals, preferences, and needs. This can help the bank tailor their services and offers to meet the specific needs of this customer. Additionally, the bank can also offer financial education resources and tools to help this customer make informed decisions about their finances.</t>
         </is>
       </c>
     </row>
@@ -490,11 +491,16 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Based on the information provided, the ML model has predicted that this person is likely to opt for a personal loan. This person is 48 years old and has been associated with the bank for 23 years, indicating a long-standing relationship with the bank. Their income is $114,000 per year and they have a family of two members. Their average monthly expenditure is $3,800. This person has a post-graduate education level.
-Based on this information, the bank can offer personalized loan options that cater to the specific needs and financial situation of this customer. They can also offer financial planning and investment services to help this customer manage their income and expenses effectively. Additionally, the bank can provide insurance services to protect the customer and their family in case of any unforeseen events.
-Since this person has a long-standing relationship with the bank, the bank can also offer loyalty programs and rewards to further strengthen the relationship. They can also provide personalized financial advice and assistance to help the customer achieve their financial goals.
-Furthermore, the bank can offer online banking services and encourage the customer to opt for net banking to make their banking experience more convenient and hassle-free. They can also offer credit card options to this customer, as they have a good credit score and are likely to be responsible with their finances.
-Overall, the bank can use the ML model's prediction to understand this customer better and offer personalized services that cater to their specific needs and preferences. This will not only help the bank retain this customer but also attract new customers through positive word-of-mouth.</t>
+          <t>Based on the information provided, the person is a 48-year-old individual who has been associated with the bank for 23 years. They have an income of 114,000 per year and a family of 2 members. Their average monthly expenditure is 3,800. They have a post-graduate degree and do not have any mortgage amount. They have a security account and a CDAccount with the bank, but have not opted for online banking or a credit card.
+Based on this information, the bank can offer the following services to better understand and cater to the needs of this customer:
+1. Personalized financial planning: The bank can offer personalized financial planning services to help the customer manage their income, expenses, and investments effectively.
+2. Retirement planning: As the customer is approaching their retirement age, the bank can offer retirement planning services to help them save and invest for their future.
+3. Investment options: The bank can offer various investment options such as mutual funds, stocks, and bonds to help the customer grow their wealth.
+4. Insurance products: The bank can offer insurance products such as life insurance, health insurance, and property insurance to provide financial security to the customer and their family.
+5. Online banking and credit card services: The bank can encourage the customer to opt for online banking and credit card services to make their banking experience more convenient and secure.
+6. Education loan: As the customer has a post-graduate degree, the bank can offer education loans for their children's higher education.
+7. Wealth management services: The bank can offer wealth management services to help the customer manage their assets and investments efficiently.
+By offering these services, the bank can gain a better understanding of the customer's financial goals and needs, and provide them with personalized solutions to help them achieve their financial objectives. This will also help in building a long-term relationship with the customer and increase their loyalty towards the bank.</t>
         </is>
       </c>
     </row>
@@ -510,11 +516,14 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Based on the ML model, this person is likely to opt for a personal loan. They are 38 years old and have been associated with the bank for 14 years, indicating a long-standing relationship with the bank. Their income is relatively high at 130,000 and they have a family of four, suggesting a need for financial stability and support.
-Since the person has a post-graduate education, they may be interested in investment opportunities and financial planning services. The bank can offer services such as wealth management, retirement planning, and investment advice to cater to their needs.
-Additionally, since the person does not have a security account but has a CDAccount, the bank can offer them options for securing their assets and investments. They can also provide personalized financial advice and assistance in managing their finances.
-As the person does not have online banking or a credit card, the bank can offer them these services and promote the convenience and security of online banking. They can also offer credit card options with attractive rewards and benefits to suit the person's lifestyle and spending habits.
-Overall, the bank can use the ML model's prediction to tailor their services and offer personalized solutions to this customer, building a stronger relationship and increasing customer satisfaction.</t>
+          <t>Based on the information provided, the ML model has predicted that this person is likely to opt for a personal loan. This person is 38 years old and has been associated with the bank for 14 years. Their income is $130,000 per year and they have a family of 4 members. Their average monthly expenditure is $4,700 and they have a post-graduate education level.
+Some additional services that the bank can offer to this customer are:
+1. Financial Planning: As this person has a high income and a family to support, the bank can offer financial planning services to help them manage their expenses and investments effectively.
+2. Investment Opportunities: The bank can also offer investment opportunities to this customer, such as mutual funds, stocks, and bonds, to help them grow their wealth.
+3. Insurance Services: With a family to support, it is important for this person to have insurance coverage. The bank can offer various insurance services, such as life insurance, health insurance, and property insurance, to provide financial security to the customer and their family.
+4. Personalized Loan Options: The bank can offer personalized loan options to this customer based on their income, credit score, and financial goals. This can include options for home loans, car loans, and education loans.
+5. Online Banking and Mobile App: As this person has not opted for net banking, the bank can offer them a user-friendly online banking platform and a mobile app to make banking more convenient and accessible for them.
+By offering these services, the bank can not only cater to the customer's financial needs but also gain a better understanding of their preferences and behavior. This can help the bank to provide personalized and targeted services to the customer in the future, leading to a stronger and more profitable relationship.</t>
         </is>
       </c>
     </row>
@@ -530,14 +539,15 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Based on the information provided, the ML model has predicted that this person is likely to opt for a personal loan. This person is 46 years old and has been associated with the bank for 21 years. They have a high income of 193,000 and a small family of 2 members. Their average monthly expenditure is 8,100 and they have a post-graduate education level.
+          <t xml:space="preserve">
+Based on the information provided, the ML model has predicted that this person is likely to opt for a personal loan. This person is 46 years old and has been associated with the bank for 21 years. They have a high income of 193,000 and a small family of 2 members. Their average monthly expenditure is 8,100 and they have a post-graduate education level.
 Some additional services that the bank can offer to this customer are:
-1. Investment opportunities: Based on their high income and long association with the bank, this person may be interested in investment opportunities such as mutual funds, stocks, or bonds. The bank can offer personalized investment plans based on their risk appetite and financial goals.
-2. Retirement planning: As this person is in their late 40s, the bank can offer retirement planning services to help them save and invest for their future. This can include options such as pension plans, annuities, and retirement savings accounts.
-3. Insurance products: The bank can offer various insurance products such as life insurance, health insurance, and property insurance to provide financial security to this customer and their family.
-4. Wealth management services: With a high income and potential for future growth, this person may benefit from wealth management services offered by the bank. This can include portfolio management, tax planning, and estate planning.
-5. Personalized financial advice: The bank can assign a dedicated financial advisor to this customer who can provide personalized financial advice and help them make informed decisions about their finances.
-By offering these additional services, the bank can not only cater to the customer's financial needs but also build a stronger relationship with them. This will help the bank understand the customer better and offer more tailored products and services in the future.</t>
+1. Investment options: Since this person has a high income and a long association with the bank, they may be interested in investing their money in various options such as mutual funds, stocks, or fixed deposits. The bank can offer personalized investment plans based on their risk appetite and financial goals.
+2. Retirement planning: With a high income and nearing retirement age, this person may be interested in planning for their retirement. The bank can offer retirement planning services and help them create a financial plan for their post-retirement life.
+3. Insurance products: As a responsible bank, you can offer various insurance products such as life insurance, health insurance, and property insurance to this customer. This will not only provide them with financial security but also help them save on taxes.
+4. Wealth management services: This person's high income and long association with the bank make them a potential candidate for wealth management services. The bank can offer personalized wealth management solutions to help them grow and manage their wealth effectively.
+5. Financial planning and budgeting: The bank can also offer financial planning and budgeting services to help this customer manage their finances better. This will not only help them save money but also make them more financially stable.
+By offering these additional services, the bank can not only cater to the customer's financial needs but also build a strong and long-lasting relationship with them. It will also help the bank understand the customer's financial goals and preferences better, allowing them to offer more personalized services in the future.</t>
         </is>
       </c>
     </row>
@@ -553,16 +563,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Based on the information provided, the person is 38 years old and has been associated with the bank for 13 years. They have an income of 119,000 per year and have a small family of one member. Their average monthly expenditure is 3,300. They have a graduation degree and do not have any mortgage amount. They do not have a security account but have a CDAccount, and have opted for online banking and also have a credit card.
-Based on this information, the bank can offer the following services to better understand and cater to the needs of this customer:
-1. Personalized financial planning: The bank can offer personalized financial planning services to help the customer manage their income and expenses effectively. This can include budgeting, investment planning, and retirement planning.
-2. Education loan: As the customer has a graduation degree and is interested in further education, the bank can offer education loans to help them pursue their post-graduation degree.
-3. Insurance products: The bank can offer various insurance products such as life insurance, health insurance, and property insurance to provide financial security to the customer and their family.
-4. Investment opportunities: With a good income and a long association with the bank, the customer can be offered various investment opportunities such as mutual funds, stocks, and bonds to help them grow their wealth.
-5. Credit score monitoring: As the customer has a credit card and a CDAccount, the bank can offer credit score monitoring services to help them maintain a good credit score and avail better loan and credit card offers in the future.
-6. Personalized loan offers: Based on the customer's income and expenses, the bank can offer personalized loan offers such as personal loans, home loans, and car loans to meet their financial needs.
-7. Online financial management tools: Since the customer has opted for online banking, the bank can offer online financial management tools to help them track their expenses, set financial goals, and manage their finances efficiently.
-By offering these services, the bank can not only cater to the customer's current needs but also build a long-term relationship with them by understanding their financial goals and providing personalized solutions.</t>
+          <t>Based on the information provided, we can infer that this person is a 38-year-old individual who has been associated with the bank for 13 years. They have an income of 119,000 per year and have a small family of one member. Their average monthly expenditure is 3,300 and they have a graduation degree.
+Since the ML model predicted that this person might opt for a personal loan, the bank can offer them personalized loan options with competitive interest rates. Additionally, the bank can also offer them investment options such as fixed deposits or mutual funds to help them grow their savings.
+Based on their education level and income, the bank can also offer them financial planning and advisory services to help them make informed decisions about their finances. They can also offer them credit counseling services to help them manage their credit and debt effectively.
+Since the person has a CDAccount, the bank can offer them exclusive benefits and rewards for maintaining a long-term relationship with the bank. They can also offer them online banking services and credit card options to make their banking experience more convenient.
+Furthermore, the bank can also offer them insurance products such as life insurance, health insurance, and property insurance to provide them with financial security and protection.
+Overall, by understanding the customer's profile and needs, the bank can offer them a range of services and products to cater to their financial goals and help them achieve financial stability.</t>
         </is>
       </c>
     </row>
@@ -579,16 +585,15 @@
       <c r="D7" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Based on the information provided, the ML model has predicted that this person is likely to opt for a personal loan. This person is 42 years old and has been associated with the bank for 18 years, indicating a long-standing relationship with the bank. The person has a high income of 141,000 and a family of 3 members, suggesting a stable financial background.
-The person has a high education level, with a post-graduation degree, which could indicate a higher level of financial literacy and understanding of banking products. The fact that the person has a mortgage amount of 0 could suggest that they do not have any outstanding loans or debts, making them a low-risk customer for the bank.
-The person also has a security account, CDAccount, and has opted for online banking, indicating a tech-savvy and digitally active customer. However, the person does not have a credit card, which could be an opportunity for the bank to offer them a credit card and expand their relationship with the customer.
-Based on this information, the bank can offer the following services to better understand and cater to the needs of this customer:
-1. Personalized financial planning: The bank can offer personalized financial planning services to help the customer manage their income, expenses, and investments effectively.
-2. Investment opportunities: With a high income and stable financial background, the bank can offer investment opportunities to help the customer grow their wealth.
-3. Credit card: As the customer does not have a credit card, the bank can offer them a credit card with suitable benefits and rewards to cater to their financial needs.
-4. Loan consolidation: The bank can offer loan consolidation services to help the customer manage their debts and loans more efficiently.
-5. Financial education: The bank can provide financial education and resources to help the customer make informed decisions about their finances and banking products.
-Overall, by understanding the customer's profile and needs, the bank can offer personalized and relevant services to strengthen their relationship with the customer and increase customer satisfaction.</t>
+Based on the information provided, the person is 42 years old and has been associated with the bank for 18 years. They have an income of 141,000 per year and a family of 3. Their average monthly expenditure is 5,000. They have a post-graduate education level and do not have a mortgage. They have a security account and a CDAccount, and have opted for online banking. However, they do not have a credit card.
+Based on this information, the bank can offer the following services to better understand and cater to the customer's needs:
+1. Personalized financial planning: The bank can offer personalized financial planning services to help the customer manage their income and expenses effectively. This can include budgeting, investment advice, and retirement planning.
+2. Credit card options: Since the customer does not have a credit card, the bank can offer them different credit card options that suit their needs and spending habits. This can help the customer build their credit score and avail of various benefits and rewards.
+3. Education loans: As the customer has a post-graduate education level, the bank can offer them education loans for their children's higher education. This can help the customer plan for their children's future and also strengthen their relationship with the bank.
+4. Insurance products: The bank can offer various insurance products such as life insurance, health insurance, and property insurance to the customer. This can provide them with financial security and peace of mind.
+5. Investment opportunities: With a high income and a long association with the bank, the customer may be interested in investing their money. The bank can offer them different investment opportunities such as mutual funds, stocks, and bonds.
+6. Personalized offers and discounts: Based on the customer's spending habits and preferences, the bank can offer them personalized offers and discounts on various products and services. This can help strengthen the customer's loyalty towards the bank.
+Overall, by understanding the customer's profile and offering personalized services, the bank can build a strong relationship with the customer and cater to their financial needs effectively.</t>
         </is>
       </c>
     </row>
@@ -605,18 +610,14 @@
       <c r="D8" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Based on the information provided, the ML model has predicted that this person is likely to opt for a personal loan. Let's call this person "John" for the sake of convenience.
-John is 32 years old and has been associated with the bank for 7 years. This suggests that he has a good relationship with the bank and is a loyal customer. This information can be used by the bank to offer personalized services to John, such as special interest rates or discounts on loan products.
-John's income is $132,000 per year, which indicates that he has a stable and decent income. This information can be used by the bank to offer a higher loan amount to John, as he may have the financial capability to repay it.
-John has a family of 4 members, which suggests that he may have financial responsibilities towards his family. This information can be used by the bank to offer family-oriented loan products, such as education loans or home improvement loans.
-John's average monthly expenditure is $1,100, which indicates that he has a good financial management and is capable of managing his expenses. This information can be used by the bank to offer financial planning services to John, such as investment options or savings plans.
-John has completed his graduation (education level 2), which suggests that he may have a good understanding of financial products and services. This information can be used by the bank to offer more complex and advanced financial services to John, such as investment portfolios or wealth management services.
-John has a mortgage amount of $412,000, which indicates that he may have a property or assets. This information can be used by the bank to offer mortgage loans or other secured loans to John, as he may have collateral to secure the loan.
-John does not have a security account or a CDAccount, which suggests that he may not have invested in these financial products yet. This information can be used by the bank to offer investment options and educate John about the benefits of these products.
-John has opted for online banking (Netbanking) and has a credit card, which suggests that he is tech-savvy and prefers digital banking. This information can be used by the bank to offer digital banking services and promote its online products to John.
-Based on the information provided, the bank can offer the following services to John:
-1. Personalized loan products: Based on John's income and financial stability, the bank can offer personalized loan products with attractive interest rates and flexible repayment options.
-</t>
+Based on the information provided, the ML model predicted that this person is likely to opt for a personal loan. This person is 32 years old and has been associated with the bank for 7 years. Their income is $132,000 per year and they have a family of 4 members. Their average monthly expenditure is $1,100 and they have a graduation degree.
+Some additional services that the bank can offer to this customer are:
+1. Investment options: Since this person has a stable income and a family to support, the bank can offer various investment options such as mutual funds, stocks, and bonds to help them grow their wealth.
+2. Insurance products: The bank can offer various insurance products such as life insurance, health insurance, and property insurance to provide financial security to this customer and their family.
+3. Retirement planning: As this person is in their early 30s, the bank can offer retirement planning services to help them save for their future and achieve their retirement goals.
+4. Financial planning: The bank can offer personalized financial planning services to help this customer manage their finances better and achieve their financial goals.
+5. Credit counseling: Since this person has a credit card, the bank can offer credit counseling services to help them manage their credit effectively and avoid any financial pitfalls.
+By offering these additional services, the bank can not only cater to the customer's financial needs but also build a strong relationship with them. This will help the bank understand the customer better and offer them personalized services in the future.</t>
         </is>
       </c>
     </row>
@@ -633,11 +634,14 @@
       <c r="D9" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Based on the information provided, the ML model predicted that this person is likely to opt for a personal loan. This person is 37 years old and has been associated with the bank for 12 years. They have a high income of 194,000 per year and a family of 4 members. Their average monthly expenditure is relatively low at 0.2, indicating that they have good financial management skills.
-The person has a high level of education, with a post-graduation degree. This suggests that they may have a stable job and a higher income potential. They also have a mortgage amount of 211,000, which could indicate that they have a property and are financially stable.
-The person has a security account, CDAccount, and has opted for online banking and has a credit card. This shows that they are tech-savvy and prefer to manage their finances digitally. Based on this information, the bank can offer personalized services such as online budgeting tools, investment options, and financial planning services to help the customer manage their finances effectively.
-Additionally, the bank can also offer personalized loan options such as a low-interest rate personal loan, a mortgage loan, or a credit card with attractive rewards and benefits. The bank can also provide financial advice and guidance to help the customer make informed decisions about their finances.
-Overall, this person seems to be a financially responsible and educated individual who is open to using digital banking services. By understanding their needs and preferences, the bank can offer personalized services and build a strong relationship with the customer.</t>
+Based on the information provided, the ML model has predicted that this person is likely to opt for a personal loan. This person is 37 years old and has been associated with the bank for 12 years. Their income is $194,000 per year and they have a family of 4 members. Their average monthly expenditure is $200 and they have a post-graduate education level.
+Some additional services that the bank can offer to this customer are:
+1. Investment advisory services: Since this person has a high income and has been associated with the bank for a long time, they may be interested in investing their money. The bank can offer personalized investment advice and help them grow their wealth.
+2. Insurance products: As this person has a family, the bank can offer various insurance products such as life insurance, health insurance, and property insurance to provide financial security to their loved ones.
+3. Retirement planning: With a high income and a long association with the bank, this person may be interested in planning for their retirement. The bank can offer retirement planning services and help them build a secure financial future.
+4. Wealth management services: The bank can also offer wealth management services to this customer, helping them manage their assets and investments effectively.
+5. Personalized credit solutions: As this person has a good credit score and has opted for a personal loan, the bank can offer personalized credit solutions such as credit cards, home loans, and car loans to meet their financial needs.
+To better understand this customer, the bank can also conduct a survey or hold a meeting with them to gather more information about their financial goals, risk appetite, and preferences. This will help the bank tailor their services and offerings to meet the specific needs of this customer.</t>
         </is>
       </c>
     </row>

--- a/output/personal_loan_accepted.xlsx
+++ b/output/personal_loan_accepted.xlsx
@@ -468,14 +468,17 @@
       <c r="D2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Based on the information provided, the ML model has predicted that this person is likely to opt for a personal loan. This person is 34 years old and has been associated with the bank for 9 years. Their income is $180,000 per year and they have a total of 1 family member. Their average monthly expenditure is $8,900 and they have a post-graduate education level.
-Some additional services that the bank can offer to this customer are:
-1. Investment options: Since this person has a high income and a post-graduate education, they may be interested in investing their money. The bank can offer various investment options such as mutual funds, stocks, and bonds to help them grow their wealth.
-2. Retirement planning: As this person is in their mid-30s, the bank can offer retirement planning services to help them save for their future. This can include options such as a 401(k) plan or an individual retirement account (IRA).
-3. Insurance products: The bank can offer various insurance products such as life insurance, health insurance, and disability insurance to provide financial security to this customer and their family.
-4. Wealth management services: With a high income and potential for investments, this customer may benefit from wealth management services offered by the bank. This can include personalized financial planning, portfolio management, and tax planning.
-5. Personalized banking services: The bank can offer personalized banking services such as a dedicated relationship manager, priority customer service, and exclusive banking privileges to cater to the needs of this customer.
-To better understand this customer, the bank can also conduct a survey or hold a focus group to gather more information about their financial goals, preferences, and needs. This can help the bank tailor their services and offers to meet the specific needs of this customer. Additionally, the bank can also offer financial education resources and tools to help this customer make informed decisions about their finances.</t>
+Based on the information provided, the ML model has predicted that this person is likely to opt for a personal loan. Let's call this person John.
+John is 34 years old and has been associated with the bank for 9 years. This suggests that he has a long-standing relationship with the bank and is likely to have a good credit history.
+With an income of 180,000 per year, John falls under the higher income bracket. This indicates that he has a stable source of income and is capable of repaying the loan.
+John is the only member in his family, which means he has no dependents. This could be a positive factor for the bank as it reduces the risk of default.
+His average monthly expenditure is 8,900, which is relatively low compared to his income. This suggests that John is financially responsible and has the ability to manage his expenses well.
+With a post-graduate degree, John is highly educated and is likely to have a good understanding of financial products and services. This makes him a potential target for other services that the bank can offer, such as investment products or insurance.
+Since John has no mortgage amount, it indicates that he does not have any existing loans or debts. This could be a positive factor for the bank as it reduces the risk of default.
+However, John does not have a security account, CDAccount, or any online banking services with the bank. This could be an opportunity for the bank to offer these services to John, which can help in building a stronger relationship with him.
+Based on the information provided, the bank can offer John personalized investment options, such as mutual funds or fixed deposits, to help him grow his wealth. They can also offer him credit cards with attractive benefits and rewards to suit his lifestyle.
+In addition, the bank can also provide financial planning and advisory services to help John manage his finances better. This can include budgeting, saving, and investment strategies tailored to his needs and goals.
+Overall, John seems to be a financially responsible and educated individual with a good credit history. The bank can leverage this information to offer him personalized services and build a long-term relationship with him.</t>
         </is>
       </c>
     </row>
@@ -491,16 +494,15 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Based on the information provided, the person is a 48-year-old individual who has been associated with the bank for 23 years. They have an income of 114,000 per year and a family of 2 members. Their average monthly expenditure is 3,800. They have a post-graduate degree and do not have any mortgage amount. They have a security account and a CDAccount with the bank, but have not opted for online banking or a credit card.
-Based on this information, the bank can offer the following services to better understand and cater to the needs of this customer:
-1. Personalized financial planning: The bank can offer personalized financial planning services to help the customer manage their income, expenses, and investments effectively.
-2. Retirement planning: As the customer is approaching their retirement age, the bank can offer retirement planning services to help them save and invest for their future.
-3. Investment options: The bank can offer various investment options such as mutual funds, stocks, and bonds to help the customer grow their wealth.
-4. Insurance products: The bank can offer insurance products such as life insurance, health insurance, and property insurance to provide financial security to the customer and their family.
-5. Online banking and credit card services: The bank can encourage the customer to opt for online banking and credit card services to make their banking experience more convenient and secure.
-6. Education loan: As the customer has a post-graduate degree, the bank can offer education loans for their children's higher education.
-7. Wealth management services: The bank can offer wealth management services to help the customer manage their assets and investments efficiently.
-By offering these services, the bank can gain a better understanding of the customer's financial goals and needs, and provide them with personalized solutions to help them achieve their financial objectives. This will also help in building a long-term relationship with the customer and increase their loyalty towards the bank.</t>
+          <t xml:space="preserve">
+Based on the information provided, the person is a 48-year-old individual who has been associated with the bank for 23 years. They have an income of $114,000 and a family of two members. Their average monthly expenditure is $3,800. They have a post-graduate education level and do not have any mortgage amount. They have a security account and a CDAccount, but have not opted for online banking or a credit card.
+Some additional services that the bank can offer to this customer are:
+1. Retirement planning: As the person is approaching their retirement age, the bank can offer personalized retirement planning services to help them save and invest for their future.
+2. Investment advice: With a high income and no mortgage, the person may have surplus funds that they can invest. The bank can offer investment advice and help them diversify their portfolio.
+3. Insurance products: The bank can offer various insurance products such as life insurance, health insurance, and property insurance to provide financial security to the person and their family.
+4. Wealth management services: With a high income and a long association with the bank, the person may have accumulated significant wealth. The bank can offer wealth management services to help them manage and grow their assets.
+5. Personalized loan options: As the person has a good credit score and a stable income, the bank can offer personalized loan options such as a home loan or a car loan at competitive interest rates.
+To better understand the customer, the bank can also conduct a survey or hold focus group discussions to gather more information about their financial goals, preferences, and needs. This can help the bank tailor their services and products to meet the specific needs of the customer. Additionally, the bank can also offer financial planning and budgeting tools to help the customer track their expenses and achieve their financial goals.</t>
         </is>
       </c>
     </row>
@@ -516,14 +518,16 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Based on the information provided, the ML model has predicted that this person is likely to opt for a personal loan. This person is 38 years old and has been associated with the bank for 14 years. Their income is $130,000 per year and they have a family of 4 members. Their average monthly expenditure is $4,700 and they have a post-graduate education level.
+          <t xml:space="preserve">
+Based on the information provided, the ML model has predicted that this person is likely to opt for a personal loan. This person is 38 years old and has been associated with the bank for 14 years. Their income is $130,000 per year and they have a family of 4 members. Their average monthly expenditure is $4,700. They have a post-graduate education level.
 Some additional services that the bank can offer to this customer are:
-1. Financial Planning: As this person has a high income and a family to support, the bank can offer financial planning services to help them manage their expenses and investments effectively.
-2. Investment Opportunities: The bank can also offer investment opportunities to this customer, such as mutual funds, stocks, and bonds, to help them grow their wealth.
-3. Insurance Services: With a family to support, it is important for this person to have insurance coverage. The bank can offer various insurance services, such as life insurance, health insurance, and property insurance, to provide financial security to the customer and their family.
-4. Personalized Loan Options: The bank can offer personalized loan options to this customer based on their income, credit score, and financial goals. This can include options for home loans, car loans, and education loans.
-5. Online Banking and Mobile App: As this person has not opted for net banking, the bank can offer them a user-friendly online banking platform and a mobile app to make banking more convenient and accessible for them.
-By offering these services, the bank can not only cater to the customer's financial needs but also gain a better understanding of their preferences and behavior. This can help the bank to provide personalized and targeted services to the customer in the future, leading to a stronger and more profitable relationship.</t>
+1. Investment Opportunities: Based on their income and education level, this person may be interested in exploring investment options. The bank can offer them various investment opportunities such as mutual funds, stocks, and bonds.
+2. Retirement Planning: As this person is in their late 30s, the bank can offer them retirement planning services to help them save for their future.
+3. Insurance Services: The bank can offer various insurance services such as life insurance, health insurance, and property insurance to provide financial security to this customer and their family.
+4. Financial Planning: The bank can offer personalized financial planning services to help this customer manage their income, expenses, and investments effectively.
+5. Credit Score Improvement: The bank can offer services to help this customer improve their credit score, which can help them in getting better interest rates on loans and credit cards in the future.
+6. Personalized Loan Options: The bank can offer personalized loan options based on this customer's income, expenses, and credit score. This can help them in getting a loan with better terms and conditions.
+By offering these services, the bank can not only cater to the customer's financial needs but also build a strong relationship with them. This will help the bank in understanding the customer better and offer them more personalized services in the future.</t>
         </is>
       </c>
     </row>
@@ -539,15 +543,11 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Based on the information provided, the ML model has predicted that this person is likely to opt for a personal loan. This person is 46 years old and has been associated with the bank for 21 years. They have a high income of 193,000 and a small family of 2 members. Their average monthly expenditure is 8,100 and they have a post-graduate education level.
-Some additional services that the bank can offer to this customer are:
-1. Investment options: Since this person has a high income and a long association with the bank, they may be interested in investing their money in various options such as mutual funds, stocks, or fixed deposits. The bank can offer personalized investment plans based on their risk appetite and financial goals.
-2. Retirement planning: With a high income and nearing retirement age, this person may be interested in planning for their retirement. The bank can offer retirement planning services and help them create a financial plan for their post-retirement life.
-3. Insurance products: As a responsible bank, you can offer various insurance products such as life insurance, health insurance, and property insurance to this customer. This will not only provide them with financial security but also help them save on taxes.
-4. Wealth management services: This person's high income and long association with the bank make them a potential candidate for wealth management services. The bank can offer personalized wealth management solutions to help them grow and manage their wealth effectively.
-5. Financial planning and budgeting: The bank can also offer financial planning and budgeting services to help this customer manage their finances better. This will not only help them save money but also make them more financially stable.
-By offering these additional services, the bank can not only cater to the customer's financial needs but also build a strong and long-lasting relationship with them. It will also help the bank understand the customer's financial goals and preferences better, allowing them to offer more personalized services in the future.</t>
+          <t xml:space="preserve">Based on the data provided, the ML model has predicted that this person is likely to opt for a personal loan. This person is 46 years old and has been associated with the bank for 21 years. They have a high income of 193,000 and a small family of 2 members. Their average monthly expenditure is 8,100 and they have a post-graduate education level.
+Based on this information, the bank can offer personalized loan options that cater to the customer's specific needs and financial situation. They can also offer financial planning services to help the customer manage their income and expenses effectively. Additionally, the bank can provide investment options such as fixed deposits or mutual funds to help the customer grow their wealth.
+Since the customer has a high income and a post-graduate education, the bank can also offer premium credit cards with exclusive benefits and rewards. They can also provide educational loans for the customer's family members, as well as insurance and retirement planning services.
+Furthermore, the bank can use this information to understand the customer's financial goals and offer customized solutions to help them achieve those goals. This can include savings plans, investment options, and retirement planning services.
+Overall, the ML model has provided valuable insights about the customer, which can help the bank offer personalized and relevant services to cater to their financial needs and goals. </t>
         </is>
       </c>
     </row>
@@ -563,12 +563,15 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Based on the information provided, we can infer that this person is a 38-year-old individual who has been associated with the bank for 13 years. They have an income of 119,000 per year and have a small family of one member. Their average monthly expenditure is 3,300 and they have a graduation degree.
-Since the ML model predicted that this person might opt for a personal loan, the bank can offer them personalized loan options with competitive interest rates. Additionally, the bank can also offer them investment options such as fixed deposits or mutual funds to help them grow their savings.
-Based on their education level and income, the bank can also offer them financial planning and advisory services to help them make informed decisions about their finances. They can also offer them credit counseling services to help them manage their credit and debt effectively.
-Since the person has a CDAccount, the bank can offer them exclusive benefits and rewards for maintaining a long-term relationship with the bank. They can also offer them online banking services and credit card options to make their banking experience more convenient.
-Furthermore, the bank can also offer them insurance products such as life insurance, health insurance, and property insurance to provide them with financial security and protection.
-Overall, by understanding the customer's profile and needs, the bank can offer them a range of services and products to cater to their financial goals and help them achieve financial stability.</t>
+          <t>Based on the information provided, the person is 38 years old and has been associated with the bank for 13 years. They have an income of 119,000 per year and have one family member. Their average monthly expenditure is 3,300. They have a graduation degree (education level 2) and do not have any mortgage amount. They do not have a security account but have a CDAccount, online banking (Netbanking), and a credit card.
+Based on this information, the bank can offer the following services to better understand and cater to the needs of this customer:
+1. Personalized financial planning: The bank can offer personalized financial planning services to help the customer manage their income and expenses effectively. This can include budgeting, investment planning, and retirement planning.
+2. Credit counseling: As the customer has a credit card and a CDAccount, the bank can offer credit counseling services to help them manage their credit effectively. This can include tips on how to improve credit score, how to use credit cards wisely, and how to avoid debt.
+3. Education loan: As the customer has a graduation degree and is currently working, the bank can offer education loans for higher studies or for their family member's education. This can help the customer achieve their educational goals without worrying about the financial burden.
+4. Insurance products: The bank can offer various insurance products such as life insurance, health insurance, and property insurance to provide financial security to the customer and their family.
+5. Investment opportunities: Based on the customer's income and risk appetite, the bank can offer various investment opportunities such as mutual funds, stocks, and bonds. This can help the customer grow their wealth and achieve their financial goals.
+6. Online financial tools: Since the customer has opted for online banking, the bank can offer various online financial tools such as budgeting apps, investment trackers, and retirement calculators to help the customer manage their finances conveniently.
+Overall, by offering these services, the bank can gain a better understanding of the customer's financial needs and provide them with personalized solutions to help them achieve their financial goals. This can also help in building a long-term relationship with the customer and increase their loyalty towards the bank.</t>
         </is>
       </c>
     </row>
@@ -585,15 +588,14 @@
       <c r="D7" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Based on the information provided, the person is 42 years old and has been associated with the bank for 18 years. They have an income of 141,000 per year and a family of 3. Their average monthly expenditure is 5,000. They have a post-graduate education level and do not have a mortgage. They have a security account and a CDAccount, and have opted for online banking. However, they do not have a credit card.
-Based on this information, the bank can offer the following services to better understand and cater to the customer's needs:
-1. Personalized financial planning: The bank can offer personalized financial planning services to help the customer manage their income and expenses effectively. This can include budgeting, investment advice, and retirement planning.
-2. Credit card options: Since the customer does not have a credit card, the bank can offer them different credit card options that suit their needs and spending habits. This can help the customer build their credit score and avail of various benefits and rewards.
-3. Education loans: As the customer has a post-graduate education level, the bank can offer them education loans for their children's higher education. This can help the customer plan for their children's future and also strengthen their relationship with the bank.
-4. Insurance products: The bank can offer various insurance products such as life insurance, health insurance, and property insurance to the customer. This can provide them with financial security and peace of mind.
-5. Investment opportunities: With a high income and a long association with the bank, the customer may be interested in investing their money. The bank can offer them different investment opportunities such as mutual funds, stocks, and bonds.
-6. Personalized offers and discounts: Based on the customer's spending habits and preferences, the bank can offer them personalized offers and discounts on various products and services. This can help strengthen the customer's loyalty towards the bank.
-Overall, by understanding the customer's profile and offering personalized services, the bank can build a strong relationship with the customer and cater to their financial needs effectively.</t>
+Based on the information provided, the ML model has predicted that this person is likely to opt for a personal loan. This person is 42 years old and has been associated with the bank for 18 years. Their income is $141,000 per year and they have a family of 3 members. They have a higher education level, with a post-graduation degree.
+Some additional services that the bank can offer to this customer are:
+1. Investment options: Since this person has a higher income and a long-standing relationship with the bank, they may be interested in investing their money in various options such as mutual funds, stocks, or bonds. The bank can offer personalized investment plans based on their risk appetite and financial goals.
+2. Retirement planning: As this person is in their 40s, it is a good time for them to start planning for their retirement. The bank can offer retirement planning services and help them create a financial plan for their post-retirement years.
+3. Insurance products: The bank can offer various insurance products such as life insurance, health insurance, and property insurance to this customer. This will not only provide them with financial security but also help the bank to build a long-term relationship with the customer.
+4. Wealth management services: With a high income and a long-term relationship with the bank, this person may be interested in wealth management services. The bank can offer personalized wealth management solutions to help them grow and manage their wealth effectively.
+5. Financial planning and advisory services: The bank can offer financial planning and advisory services to help this customer make informed decisions about their finances. This can include budgeting, debt management, and investment advice.
+By offering these additional services, the bank can not only cater to the customer's financial needs but also build a stronger relationship with them. This will help the bank to understand the customer better and offer more personalized services in the future.</t>
         </is>
       </c>
     </row>
@@ -610,14 +612,14 @@
       <c r="D8" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Based on the information provided, the ML model predicted that this person is likely to opt for a personal loan. This person is 32 years old and has been associated with the bank for 7 years. Their income is $132,000 per year and they have a family of 4 members. Their average monthly expenditure is $1,100 and they have a graduation degree.
+Based on the information provided, the ML model predicted that this person is likely to opt for a personal loan. This person is 32 years old and has been associated with the bank for 7 years. Their income is $132,000 per year and they have a family of 4 members. Their average monthly expenditure is $1,100 and they have a graduation degree (level 2).
 Some additional services that the bank can offer to this customer are:
-1. Investment options: Since this person has a stable income and a family to support, the bank can offer various investment options such as mutual funds, stocks, and bonds to help them grow their wealth.
-2. Insurance products: The bank can offer various insurance products such as life insurance, health insurance, and property insurance to provide financial security to this customer and their family.
-3. Retirement planning: As this person is in their early 30s, the bank can offer retirement planning services to help them save for their future and achieve their retirement goals.
-4. Financial planning: The bank can offer personalized financial planning services to help this customer manage their finances better and achieve their financial goals.
-5. Credit counseling: Since this person has a credit card, the bank can offer credit counseling services to help them manage their credit effectively and avoid any financial pitfalls.
-By offering these additional services, the bank can not only cater to the customer's financial needs but also build a strong relationship with them. This will help the bank understand the customer better and offer them personalized services in the future.</t>
+1. Financial planning and investment advice: Since this person has a higher income and a family to support, they may benefit from financial planning and investment advice to help them manage their finances better.
+2. Insurance products: The bank can offer various insurance products such as life insurance, health insurance, and property insurance to provide financial security to the customer and their family.
+3. Retirement planning: As this person is in their early thirties, the bank can offer retirement planning services to help them save and invest for their future.
+4. Education loans: Since this person has a graduation degree, they may be interested in pursuing higher education. The bank can offer education loans to help them achieve their educational goals.
+5. Wealth management services: With a higher income, this person may be interested in wealth management services to help them grow their wealth and achieve their financial goals.
+To better understand this customer, the bank can also analyze their spending patterns and offer personalized financial solutions. They can also provide educational resources and workshops to help the customer make informed financial decisions. Additionally, the bank can offer rewards and loyalty programs to incentivize the customer to use their services and products.</t>
         </is>
       </c>
     </row>
@@ -634,14 +636,11 @@
       <c r="D9" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Based on the information provided, the ML model has predicted that this person is likely to opt for a personal loan. This person is 37 years old and has been associated with the bank for 12 years. Their income is $194,000 per year and they have a family of 4 members. Their average monthly expenditure is $200 and they have a post-graduate education level.
-Some additional services that the bank can offer to this customer are:
-1. Investment advisory services: Since this person has a high income and has been associated with the bank for a long time, they may be interested in investing their money. The bank can offer personalized investment advice and help them grow their wealth.
-2. Insurance products: As this person has a family, the bank can offer various insurance products such as life insurance, health insurance, and property insurance to provide financial security to their loved ones.
-3. Retirement planning: With a high income and a long association with the bank, this person may be interested in planning for their retirement. The bank can offer retirement planning services and help them build a secure financial future.
-4. Wealth management services: The bank can also offer wealth management services to this customer, helping them manage their assets and investments effectively.
-5. Personalized credit solutions: As this person has a good credit score and has opted for a personal loan, the bank can offer personalized credit solutions such as credit cards, home loans, and car loans to meet their financial needs.
-To better understand this customer, the bank can also conduct a survey or hold a meeting with them to gather more information about their financial goals, risk appetite, and preferences. This will help the bank tailor their services and offerings to meet the specific needs of this customer.</t>
+Based on the information provided, the ML model has predicted that this person is likely to opt for a personal loan. This person is 37 years old and has been associated with the bank for 12 years. They have a high income of $194,000 per year and a total of 4 family members. Their average monthly expenditure is relatively low at $200. They have a high education level, with a post-graduation degree.
+In addition to a personal loan, the bank can offer this customer other services such as investment options, retirement planning, and insurance products. Since this person has a high income and a family to support, they may be interested in investing their money for future financial security. The bank can also offer them retirement planning services to help them save for their retirement. Additionally, the bank can offer insurance products such as life insurance, health insurance, and property insurance to protect their assets and provide financial security for their family.
+To better understand this customer, the bank can also analyze their spending patterns and offer personalized budgeting and financial planning services. This can help the customer manage their expenses and save more effectively. The bank can also offer credit counseling services to help the customer manage their credit card and mortgage payments.
+Furthermore, since this person has a security account, CDAccount, and has opted for online banking, the bank can offer them personalized digital banking services. This can include features such as online bill payments, mobile banking, and personalized financial management tools.
+Overall, by understanding this customer's financial profile and offering personalized services, the bank can build a strong relationship with them and cater to their financial needs effectively.</t>
         </is>
       </c>
     </row>
